--- a/R/analysis/data/Pt_34_M1.xlsx
+++ b/R/analysis/data/Pt_34_M1.xlsx
@@ -524,7 +524,7 @@
         <v>2.83</v>
       </c>
       <c r="N2" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.41</v>
@@ -635,16 +635,16 @@
         <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>7.42</v>
+        <v>0.35</v>
       </c>
       <c r="L4" t="n">
-        <v>0.25</v>
+        <v>5.25</v>
       </c>
       <c r="M4" t="n">
-        <v>4.95</v>
+        <v>0.71</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>1.41</v>
       </c>
       <c r="N5" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>2.32</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.83</v>
+        <v>4.83</v>
       </c>
       <c r="M6" t="n">
         <v>0.71</v>
@@ -815,16 +815,16 @@
         <v>2.83</v>
       </c>
       <c r="K7" t="n">
-        <v>5.66</v>
+        <v>1.17</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.83</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>3.18</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.75</v>
+        <v>2.25</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>1.41</v>
       </c>
       <c r="N8" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>1.86</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.33</v>
+        <v>5.33</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -995,16 +995,16 @@
         <v>1.76</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>2.23</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.58</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>4.95</v>
+        <v>3.54</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>1.41</v>
       </c>
       <c r="N11" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>1.26</v>
       </c>
       <c r="L12" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0.71</v>
@@ -1175,16 +1175,16 @@
         <v>2.71</v>
       </c>
       <c r="K13" t="n">
-        <v>7.66</v>
+        <v>0.59</v>
       </c>
       <c r="L13" t="n">
-        <v>0.42</v>
+        <v>5.42</v>
       </c>
       <c r="M13" t="n">
-        <v>7.42</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.75</v>
+        <v>5.25</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>1.26</v>
       </c>
       <c r="L15" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>1.41</v>
@@ -1349,10 +1349,10 @@
         <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>6.89</v>
+        <v>0.18</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.12</v>
+        <v>4.88</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1466,7 +1466,7 @@
         <v>1.51</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M18" t="n">
         <v>0.71</v>
@@ -1521,10 +1521,10 @@
         <v>1.92</v>
       </c>
       <c r="K19" t="n">
-        <v>5.54</v>
+        <v>0.83</v>
       </c>
       <c r="L19" t="n">
-        <v>0.58</v>
+        <v>3.92</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
         <v>2.71</v>
@@ -1695,16 +1695,16 @@
         <v>2.93</v>
       </c>
       <c r="K22" t="n">
-        <v>6.41</v>
+        <v>0.05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04</v>
+        <v>4.54</v>
       </c>
       <c r="M22" t="n">
-        <v>6.36</v>
+        <v>2.12</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.5</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0.55</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.41</v>
@@ -1869,10 +1869,10 @@
         <v>1.44</v>
       </c>
       <c r="K25" t="n">
-        <v>3.97</v>
+        <v>0.44</v>
       </c>
       <c r="L25" t="n">
-        <v>0.31</v>
+        <v>2.81</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
@@ -1936,7 +1936,7 @@
         <v>1.41</v>
       </c>
       <c r="N26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>2.31</v>
       </c>
       <c r="L27" t="n">
-        <v>-4.67</v>
+        <v>4.67</v>
       </c>
       <c r="M27" t="n">
         <v>1.52</v>
@@ -2047,16 +2047,16 @@
         <v>2.53</v>
       </c>
       <c r="K28" t="n">
-        <v>5.78</v>
+        <v>0.83</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.58</v>
+        <v>4.08</v>
       </c>
       <c r="M28" t="n">
-        <v>3.11</v>
+        <v>0.28</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
